--- a/config.xlsx
+++ b/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\playground\Dyson_Sphere_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\playground\Dyson_Sphere_Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11ABD9CF-BAF7-4C58-BE4D-DB233290B390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F79C197-F4B6-43A3-968F-8942DD0F8477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11130" yWindow="8288" windowWidth="15390" windowHeight="10552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1605" yWindow="4410" windowWidth="15390" windowHeight="10553" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>生产类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>速度（倍率）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>制造</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,6 +80,78 @@
   </si>
   <si>
     <t>接收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Production type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assembling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mining</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smelting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chemical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Particle collider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refinery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度（倍率）/ Speed (times)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产物品/Production</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产数量/Production quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白糖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,123 +477,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>1200</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
         <v>1</v>
       </c>
     </row>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,35 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\playground\Dyson_Sphere_Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F79C197-F4B6-43A3-968F-8942DD0F8477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F00306-B7A6-4E63-9296-E930CF203702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="4410" windowWidth="15390" windowHeight="10553" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="83" windowWidth="15390" windowHeight="10552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>生产类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>制造</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Production type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assembling</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,6 +153,10 @@
   </si>
   <si>
     <t>白糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产类型/Production type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,177 +482,245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.75</v>
+      </c>
+      <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2">
-        <v>1200</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
+      <c r="B21">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B22">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B26">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14">
+      <c r="B27">
         <v>1</v>
       </c>
     </row>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\playground\Dyson_Sphere_Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F00306-B7A6-4E63-9296-E930CF203702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2630BCA5-2F4A-4AF0-A87A-7CE125EC511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2205" yWindow="83" windowWidth="15390" windowHeight="10552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,24 +140,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>速度（倍率）/ Speed (times)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产物品/Production</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产数量/Production quantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>白糖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生产类型/Production type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>生产类型 / Production type</t>
+  </si>
+  <si>
+    <t>速度（倍率） /  Speed (times)</t>
+  </si>
+  <si>
+    <t>生产物品 / Production</t>
+  </si>
+  <si>
+    <t>生产数量 / Production quantity</t>
   </si>
 </sst>
 </file>
@@ -485,23 +481,23 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -512,7 +508,7 @@
         <v>0.75</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>600</v>
@@ -526,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3">
         <v>600</v>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\playground\Dyson_Sphere_Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2630BCA5-2F4A-4AF0-A87A-7CE125EC511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16C3C95-26F8-418D-8759-9F57314EE1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2205" yWindow="83" windowWidth="15390" windowHeight="10552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,13 +147,14 @@
     <t>生产类型 / Production type</t>
   </si>
   <si>
-    <t>速度（倍率） /  Speed (times)</t>
-  </si>
-  <si>
     <t>生产物品 / Production</t>
   </si>
   <si>
     <t>生产数量 / Production quantity</t>
+  </si>
+  <si>
+    <t>速度（倍率） /  Speed (ratio)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -481,7 +482,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -491,13 +492,13 @@
         <v>27</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -723,5 +724,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config.xlsx
+++ b/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\playground\Dyson_Sphere_Program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pengcheng/playground/Dyson_Sphere_Program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16C3C95-26F8-418D-8759-9F57314EE1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E587F11-C532-C043-9D75-14D063D84D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="83" windowWidth="15390" windowHeight="10552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="660" windowWidth="15400" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>制造</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>白糖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生产类型 / Production type</t>
   </si>
   <si>
@@ -154,6 +150,10 @@
   </si>
   <si>
     <t>速度（倍率） /  Speed (ratio)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁涡轮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,26 +482,26 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -509,27 +509,21 @@
         <v>0.75</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -537,7 +531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -545,7 +539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -553,7 +547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -561,7 +555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -569,7 +563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -577,7 +571,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -585,7 +579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -593,7 +587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -601,7 +595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -609,7 +603,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -617,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -625,7 +619,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -633,7 +627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -641,7 +635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -649,7 +643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -657,7 +651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -665,7 +659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -673,7 +667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -681,7 +675,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -689,7 +683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -697,7 +691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -705,7 +699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -713,7 +707,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>25</v>
       </c>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pengcheng/playground/Dyson_Sphere_Program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E587F11-C532-C043-9D75-14D063D84D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9FE3BE-22E4-4940-914F-3B2A5896EC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="660" windowWidth="15400" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
         <v>30</v>
       </c>
       <c r="D2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pengcheng/playground/Dyson_Sphere_Program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9FE3BE-22E4-4940-914F-3B2A5896EC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E012279-B984-2E42-AC28-DA74026E9132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="660" windowWidth="15400" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -512,7 +512,7 @@
         <v>30</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
